--- a/results_long.xlsx
+++ b/results_long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\OneDrive\openProjects\fibroOBE\RUNNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{23D8AE39-EC82-40B7-BC5F-550DEB1F188C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{A3B2702F-81B4-4FDF-8227-50D6C6AB611E}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{23D8AE39-EC82-40B7-BC5F-550DEB1F188C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F3F5C617-A5EE-4EAF-9070-653888BFFBBB}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="50" windowWidth="18130" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1070" yWindow="50" windowWidth="18130" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="29">
   <si>
     <t>Pain1_Q1</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>condition</t>
+  </si>
+  <si>
+    <t>obe</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1757,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1782,7 +1785,7 @@
         <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
         <v>22</v>

--- a/results_long.xlsx
+++ b/results_long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justy\OneDrive\openProjects\fibroOBE\RUNNING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{23D8AE39-EC82-40B7-BC5F-550DEB1F188C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F3F5C617-A5EE-4EAF-9070-653888BFFBBB}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{23D8AE39-EC82-40B7-BC5F-550DEB1F188C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3D016E45-8CA9-4838-8C05-BF1A98E42C0E}"/>
   <bookViews>
-    <workbookView xWindow="1070" yWindow="50" windowWidth="18130" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1070" yWindow="650" windowWidth="18130" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1319,7 +1319,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H106:V118" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -1757,7 +1757,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J2" sqref="J2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -2079,7 +2079,7 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
